--- a/Document/GreatStar外贸财务设计(hbh).wf.xlsx
+++ b/Document/GreatStar外贸财务设计(hbh).wf.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="1524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="1529">
   <si>
     <t>1、</t>
   </si>
@@ -7311,6 +7311,26 @@
   </si>
   <si>
     <t>实付金额 = 预付金额 - 扣款金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFIDA.U9.Cust.GS.FT.HBHHelper.EntityTakeQtyUpdate.UpdateTakeQty(…)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下游更新调用方法：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Inserted、Updated、Deleted都要调用)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dll位置： UBFV30\U9.VOB.Product.Component\Unconfiged\Component\UFIDA.U9.Cust.GS.FT.HBHHelper.dll</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码：    GreatStar\FT\Code\UFIDA.U9.Cust.GS.FT.HBHHelper\</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7757,7 +7777,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8074,6 +8094,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -19604,10 +19627,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J228"/>
+  <dimension ref="A1:J233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20904,489 +20927,518 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="64" customFormat="1"/>
-    <row r="113" spans="2:7" s="64" customFormat="1">
-      <c r="B113" s="64">
+    <row r="112" spans="1:8" s="96" customFormat="1">
+      <c r="D112" s="78"/>
+    </row>
+    <row r="113" spans="2:7" s="96" customFormat="1">
+      <c r="C113" s="96" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D113" s="78" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" s="96" customFormat="1">
+      <c r="C114" s="120" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D114" s="78" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" s="96" customFormat="1">
+      <c r="C115" s="120"/>
+      <c r="D115" s="78" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" s="96" customFormat="1">
+      <c r="D116" s="78"/>
+    </row>
+    <row r="117" spans="2:7" s="64" customFormat="1"/>
+    <row r="118" spans="2:7" s="64" customFormat="1">
+      <c r="B118" s="64">
         <v>2.1</v>
       </c>
-      <c r="C113" s="64" t="s">
+      <c r="C118" s="64" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="114" spans="2:7" s="64" customFormat="1">
-      <c r="C114" s="64" t="s">
+    <row r="119" spans="2:7" s="64" customFormat="1">
+      <c r="C119" s="64" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="115" spans="2:7" s="64" customFormat="1"/>
-    <row r="116" spans="2:7" s="73" customFormat="1">
-      <c r="C116" s="73" t="s">
+    <row r="120" spans="2:7" s="64" customFormat="1"/>
+    <row r="121" spans="2:7" s="73" customFormat="1">
+      <c r="C121" s="73" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="117" spans="2:7" s="73" customFormat="1">
-      <c r="D117" s="75" t="s">
+    <row r="122" spans="2:7" s="73" customFormat="1">
+      <c r="D122" s="75" t="s">
         <v>1374</v>
       </c>
-      <c r="E117" s="43" t="s">
+      <c r="E122" s="43" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="118" spans="2:7" s="96" customFormat="1">
-      <c r="D118" s="75"/>
-      <c r="E118" s="43"/>
-    </row>
-    <row r="119" spans="2:7" s="64" customFormat="1">
-      <c r="C119" s="31" t="s">
+    <row r="123" spans="2:7" s="96" customFormat="1">
+      <c r="D123" s="75"/>
+      <c r="E123" s="43"/>
+    </row>
+    <row r="124" spans="2:7" s="64" customFormat="1">
+      <c r="C124" s="31" t="s">
         <v>1477</v>
       </c>
-      <c r="D119" s="31" t="s">
+      <c r="D124" s="31" t="s">
         <v>1483</v>
       </c>
-      <c r="E119" s="31" t="s">
+      <c r="E124" s="31" t="s">
         <v>1480</v>
       </c>
-      <c r="F119" s="31" t="s">
+      <c r="F124" s="31" t="s">
         <v>1373</v>
       </c>
-      <c r="G119" s="31" t="s">
+      <c r="G124" s="31" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="120" spans="2:7" s="64" customFormat="1">
-      <c r="C120" s="74" t="s">
+    <row r="125" spans="2:7" s="64" customFormat="1">
+      <c r="C125" s="74" t="s">
         <v>1496</v>
       </c>
-      <c r="D120" s="74"/>
-      <c r="E120" s="74" t="s">
+      <c r="D125" s="74"/>
+      <c r="E125" s="74" t="s">
         <v>1507</v>
       </c>
-      <c r="F120" s="8" t="s">
+      <c r="F125" s="8" t="s">
         <v>1491</v>
       </c>
-      <c r="G120" s="74"/>
-    </row>
-    <row r="121" spans="2:7" s="64" customFormat="1">
-      <c r="C121" s="74" t="s">
+      <c r="G125" s="74"/>
+    </row>
+    <row r="126" spans="2:7" s="64" customFormat="1">
+      <c r="C126" s="74" t="s">
         <v>1497</v>
       </c>
-      <c r="D121" s="74"/>
-      <c r="E121" s="74" t="s">
+      <c r="D126" s="74"/>
+      <c r="E126" s="74" t="s">
         <v>1489</v>
       </c>
-      <c r="F121" s="8" t="s">
+      <c r="F126" s="8" t="s">
         <v>1490</v>
       </c>
-      <c r="G121" s="74"/>
-    </row>
-    <row r="122" spans="2:7" s="64" customFormat="1">
-      <c r="C122" s="74" t="s">
+      <c r="G126" s="74"/>
+    </row>
+    <row r="127" spans="2:7" s="64" customFormat="1">
+      <c r="C127" s="74" t="s">
         <v>1494</v>
       </c>
-      <c r="D122" s="74"/>
-      <c r="E122" s="74" t="s">
+      <c r="D127" s="74"/>
+      <c r="E127" s="74" t="s">
         <v>1487</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="F127" s="8" t="s">
         <v>1488</v>
       </c>
-      <c r="G122" s="74"/>
-    </row>
-    <row r="123" spans="2:7" s="64" customFormat="1">
-      <c r="C123" s="74" t="s">
+      <c r="G127" s="74"/>
+    </row>
+    <row r="128" spans="2:7" s="64" customFormat="1">
+      <c r="C128" s="74" t="s">
         <v>1495</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D128" s="8" t="s">
         <v>1484</v>
       </c>
-      <c r="E123" s="74" t="s">
+      <c r="E128" s="74" t="s">
         <v>1485</v>
       </c>
-      <c r="F123" s="8" t="s">
+      <c r="F128" s="8" t="s">
         <v>1486</v>
       </c>
-      <c r="G123" s="74"/>
-    </row>
-    <row r="124" spans="2:7" s="64" customFormat="1">
-      <c r="C124" s="110" t="s">
+      <c r="G128" s="74"/>
+    </row>
+    <row r="129" spans="2:9" s="64" customFormat="1">
+      <c r="C129" s="110" t="s">
         <v>1498</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D129" s="8" t="s">
         <v>1446</v>
       </c>
-      <c r="E124" s="108"/>
-      <c r="F124" s="67" t="s">
+      <c r="E129" s="108"/>
+      <c r="F129" s="67" t="s">
         <v>1499</v>
       </c>
-      <c r="G124" s="109" t="s">
+      <c r="G129" s="109" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="125" spans="2:7" s="64" customFormat="1"/>
-    <row r="126" spans="2:7" s="64" customFormat="1"/>
-    <row r="127" spans="2:7" s="64" customFormat="1">
-      <c r="B127" s="64">
+    <row r="130" spans="2:9" s="64" customFormat="1"/>
+    <row r="131" spans="2:9" s="64" customFormat="1"/>
+    <row r="132" spans="2:9" s="64" customFormat="1">
+      <c r="B132" s="64">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C127" s="64" t="s">
+      <c r="C132" s="64" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="128" spans="2:7" s="64" customFormat="1">
-      <c r="D128" s="64" t="s">
+    <row r="133" spans="2:9" s="64" customFormat="1">
+      <c r="D133" s="64" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="129" spans="2:9" s="96" customFormat="1"/>
-    <row r="130" spans="2:9" s="96" customFormat="1">
-      <c r="D130" s="31" t="s">
+    <row r="134" spans="2:9" s="96" customFormat="1"/>
+    <row r="135" spans="2:9" s="96" customFormat="1">
+      <c r="D135" s="31" t="s">
         <v>1479</v>
       </c>
-      <c r="E130" s="31" t="s">
+      <c r="E135" s="31" t="s">
         <v>1474</v>
       </c>
-      <c r="F130" s="114" t="s">
+      <c r="F135" s="114" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="131" spans="2:9" s="64" customFormat="1">
-      <c r="D131" s="108" t="s">
+    <row r="136" spans="2:9" s="64" customFormat="1">
+      <c r="D136" s="108" t="s">
         <v>1510</v>
       </c>
-      <c r="E131" s="108" t="s">
+      <c r="E136" s="108" t="s">
         <v>1475</v>
       </c>
-      <c r="F131" s="77" t="s">
+      <c r="F136" s="77" t="s">
         <v>1371</v>
       </c>
-      <c r="H131" s="96"/>
-      <c r="I131" s="96"/>
-    </row>
-    <row r="132" spans="2:9" s="64" customFormat="1"/>
-    <row r="133" spans="2:9" s="64" customFormat="1">
-      <c r="B133" s="64">
+      <c r="H136" s="96"/>
+      <c r="I136" s="96"/>
+    </row>
+    <row r="137" spans="2:9" s="64" customFormat="1"/>
+    <row r="138" spans="2:9" s="64" customFormat="1">
+      <c r="B138" s="64">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C133" s="64" t="s">
+      <c r="C138" s="64" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="134" spans="2:9" s="64" customFormat="1">
-      <c r="C134" s="64" t="s">
+    <row r="139" spans="2:9" s="64" customFormat="1">
+      <c r="C139" s="64" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="135" spans="2:9" s="64" customFormat="1">
-      <c r="C135" s="64" t="s">
+    <row r="140" spans="2:9" s="64" customFormat="1">
+      <c r="C140" s="64" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="136" spans="2:9" s="64" customFormat="1"/>
-    <row r="137" spans="2:9" s="64" customFormat="1">
-      <c r="D137" s="31" t="s">
+    <row r="141" spans="2:9" s="64" customFormat="1"/>
+    <row r="142" spans="2:9" s="64" customFormat="1">
+      <c r="D142" s="31" t="s">
         <v>1479</v>
       </c>
-      <c r="E137" s="31" t="s">
+      <c r="E142" s="31" t="s">
         <v>1474</v>
       </c>
-      <c r="F137" s="114" t="s">
+      <c r="F142" s="114" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="138" spans="2:9" s="64" customFormat="1">
-      <c r="D138" s="108" t="s">
+    <row r="143" spans="2:9" s="64" customFormat="1">
+      <c r="D143" s="108" t="s">
         <v>1478</v>
       </c>
-      <c r="E138" s="108" t="s">
+      <c r="E143" s="108" t="s">
         <v>1473</v>
       </c>
-      <c r="F138" s="76" t="s">
+      <c r="F143" s="76" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="139" spans="2:9" s="64" customFormat="1">
-      <c r="D139" s="35"/>
-      <c r="E139" s="35"/>
-      <c r="F139" s="96"/>
-    </row>
-    <row r="140" spans="2:9" s="64" customFormat="1">
-      <c r="B140" s="64">
+    <row r="144" spans="2:9" s="64" customFormat="1">
+      <c r="D144" s="35"/>
+      <c r="E144" s="35"/>
+      <c r="F144" s="96"/>
+    </row>
+    <row r="145" spans="1:10" s="64" customFormat="1">
+      <c r="B145" s="64">
         <v>2.4</v>
       </c>
-      <c r="C140" s="64" t="s">
+      <c r="C145" s="64" t="s">
         <v>1465</v>
       </c>
-      <c r="D140" s="96"/>
-      <c r="E140" s="96"/>
-      <c r="F140" s="96"/>
-    </row>
-    <row r="141" spans="2:9" s="64" customFormat="1">
-      <c r="C141" s="64" t="s">
+      <c r="D145" s="96"/>
+      <c r="E145" s="96"/>
+      <c r="F145" s="96"/>
+    </row>
+    <row r="146" spans="1:10" s="64" customFormat="1">
+      <c r="C146" s="64" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="142" spans="2:9" s="96" customFormat="1">
-      <c r="C142" s="96" t="s">
+    <row r="147" spans="1:10" s="96" customFormat="1">
+      <c r="C147" s="96" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="143" spans="2:9" s="96" customFormat="1"/>
-    <row r="144" spans="2:9" s="96" customFormat="1">
-      <c r="C144" s="31" t="s">
+    <row r="148" spans="1:10" s="96" customFormat="1"/>
+    <row r="149" spans="1:10" s="96" customFormat="1">
+      <c r="C149" s="31" t="s">
         <v>1477</v>
       </c>
-      <c r="D144" s="31" t="s">
+      <c r="D149" s="31" t="s">
         <v>1483</v>
       </c>
-      <c r="E144" s="31" t="s">
+      <c r="E149" s="31" t="s">
         <v>1480</v>
       </c>
-      <c r="F144" s="113" t="s">
+      <c r="F149" s="113" t="s">
         <v>1500</v>
       </c>
-      <c r="G144" s="114" t="s">
+      <c r="G149" s="114" t="s">
         <v>1501</v>
       </c>
-      <c r="H144" s="31"/>
-    </row>
-    <row r="145" spans="1:10" s="64" customFormat="1">
-      <c r="C145" s="74" t="s">
+      <c r="H149" s="31"/>
+    </row>
+    <row r="150" spans="1:10" s="64" customFormat="1">
+      <c r="C150" s="74" t="s">
         <v>1495</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D150" s="8" t="s">
         <v>1484</v>
       </c>
-      <c r="E145" s="74" t="s">
+      <c r="E150" s="74" t="s">
         <v>1485</v>
       </c>
-      <c r="F145" s="108"/>
-      <c r="G145" s="77" t="s">
+      <c r="F150" s="108"/>
+      <c r="G150" s="77" t="s">
         <v>1486</v>
       </c>
-      <c r="H145" s="74"/>
-    </row>
-    <row r="146" spans="1:10">
-      <c r="A146" s="64"/>
-      <c r="B146" s="64"/>
-      <c r="C146" s="110" t="s">
+      <c r="H150" s="74"/>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="64"/>
+      <c r="B151" s="64"/>
+      <c r="C151" s="110" t="s">
         <v>1498</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D151" s="8" t="s">
         <v>1446</v>
       </c>
-      <c r="E146" s="108"/>
-      <c r="F146" s="67" t="s">
+      <c r="E151" s="108"/>
+      <c r="F151" s="67" t="s">
         <v>1499</v>
       </c>
-      <c r="H146" s="109" t="s">
+      <c r="H151" s="109" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="147" spans="1:10" s="96" customFormat="1">
-      <c r="C147" s="111"/>
-      <c r="D147" s="42"/>
-      <c r="E147" s="75"/>
-      <c r="F147" s="43"/>
-      <c r="G147" s="112"/>
-    </row>
-    <row r="148" spans="1:10">
-      <c r="A148" t="s">
+    <row r="152" spans="1:10" s="96" customFormat="1">
+      <c r="C152" s="111"/>
+      <c r="D152" s="42"/>
+      <c r="E152" s="75"/>
+      <c r="F152" s="43"/>
+      <c r="G152" s="112"/>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
-      <c r="B149" s="31">
+    <row r="154" spans="1:10">
+      <c r="B154" s="31">
         <v>2.1</v>
       </c>
-      <c r="C149" s="31" t="s">
+      <c r="C154" s="31" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
-      <c r="C150" s="57"/>
-    </row>
-    <row r="151" spans="1:10">
-      <c r="C151" s="57"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-    </row>
-    <row r="153" spans="1:10">
-      <c r="C153" s="57"/>
-    </row>
-    <row r="154" spans="1:10">
-      <c r="C154" s="57"/>
     </row>
     <row r="155" spans="1:10">
       <c r="C155" s="57"/>
     </row>
     <row r="156" spans="1:10">
       <c r="C156" s="57"/>
-    </row>
-    <row r="157" spans="1:10">
-      <c r="C157" s="57"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
     </row>
     <row r="158" spans="1:10">
-      <c r="C158" s="56"/>
+      <c r="C158" s="57"/>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="C159" s="57"/>
     </row>
     <row r="160" spans="1:10">
-      <c r="B160" s="31">
+      <c r="C160" s="57"/>
+    </row>
+    <row r="161" spans="2:4">
+      <c r="C161" s="57"/>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="C162" s="57"/>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="C163" s="56"/>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="B165" s="31">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C160" s="31" t="s">
+      <c r="C165" s="31" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="161" spans="2:4">
-      <c r="C161" s="57" t="s">
+    <row r="166" spans="2:4">
+      <c r="C166" s="57" t="s">
         <v>1518</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4">
-      <c r="C162" s="57" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4">
-      <c r="C163" s="57" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4">
-      <c r="C164" s="57" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4">
-      <c r="C165" s="58" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="167" spans="2:4">
       <c r="C167" s="57" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4">
+      <c r="C168" s="57" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4">
+      <c r="C169" s="57" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4">
+      <c r="C170" s="58" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4">
+      <c r="C172" s="57" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="169" spans="2:4">
-      <c r="C169" t="s">
+    <row r="174" spans="2:4">
+      <c r="C174" t="s">
         <v>1520</v>
       </c>
-      <c r="D169" s="96" t="s">
+      <c r="D174" s="96" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="170" spans="2:4" s="96" customFormat="1"/>
-    <row r="171" spans="2:4">
-      <c r="B171" s="31">
+    <row r="175" spans="2:4" s="96" customFormat="1"/>
+    <row r="176" spans="2:4">
+      <c r="B176" s="31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C171" s="31" t="s">
+      <c r="C176" s="31" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="31" t="s">
+    <row r="189" spans="1:3">
+      <c r="A189" s="31" t="s">
         <v>1502</v>
       </c>
-      <c r="B184" s="31"/>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="B185" s="96" t="s">
+      <c r="B189" s="31"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="B190" s="96" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
-      <c r="C186" s="64" t="s">
+    <row r="191" spans="1:3">
+      <c r="C191" s="64" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="64" customFormat="1"/>
-    <row r="188" spans="1:3" s="64" customFormat="1"/>
-    <row r="189" spans="1:3" s="64" customFormat="1">
-      <c r="C189" s="64" t="s">
+    <row r="192" spans="1:3" s="64" customFormat="1"/>
+    <row r="193" spans="3:3" s="64" customFormat="1"/>
+    <row r="194" spans="3:3" s="64" customFormat="1">
+      <c r="C194" s="64" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="64" customFormat="1"/>
-    <row r="191" spans="1:3" s="64" customFormat="1"/>
-    <row r="192" spans="1:3" s="64" customFormat="1"/>
-    <row r="193" spans="2:3">
-      <c r="C193" t="s">
+    <row r="195" spans="3:3" s="64" customFormat="1"/>
+    <row r="196" spans="3:3" s="64" customFormat="1"/>
+    <row r="197" spans="3:3" s="64" customFormat="1"/>
+    <row r="198" spans="3:3">
+      <c r="C198" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="194" spans="2:3">
-      <c r="C194" t="s">
+    <row r="199" spans="3:3">
+      <c r="C199" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="195" spans="2:3">
-      <c r="C195" t="s">
+    <row r="200" spans="3:3">
+      <c r="C200" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="196" spans="2:3">
-      <c r="C196" t="s">
+    <row r="201" spans="3:3">
+      <c r="C201" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="197" spans="2:3" s="64" customFormat="1"/>
-    <row r="198" spans="2:3" s="64" customFormat="1"/>
-    <row r="199" spans="2:3">
-      <c r="C199" t="s">
+    <row r="202" spans="3:3" s="64" customFormat="1"/>
+    <row r="203" spans="3:3" s="64" customFormat="1"/>
+    <row r="204" spans="3:3">
+      <c r="C204" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="200" spans="2:3">
-      <c r="C200" t="s">
+    <row r="205" spans="3:3">
+      <c r="C205" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="204" spans="2:3">
-      <c r="B204" t="s">
+    <row r="209" spans="2:3">
+      <c r="B209" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="205" spans="2:3">
-      <c r="C205" s="57" t="s">
+    <row r="210" spans="2:3">
+      <c r="C210" s="57" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="207" spans="2:3">
-      <c r="C207" t="s">
+    <row r="212" spans="2:3">
+      <c r="C212" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="208" spans="2:3">
-      <c r="C208" t="s">
+    <row r="213" spans="2:3">
+      <c r="C213" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
-      <c r="B213" t="s">
+    <row r="218" spans="2:3">
+      <c r="B218" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="227" spans="3:5">
-      <c r="C227" t="s">
+    <row r="232" spans="3:5">
+      <c r="C232" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="228" spans="3:5">
-      <c r="D228" t="s">
+    <row r="233" spans="3:5">
+      <c r="D233" t="s">
         <v>1506</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E233" t="s">
         <v>1509</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G66:H69"/>
+    <mergeCell ref="C114:C115"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>

--- a/Document/GreatStar外贸财务设计(hbh).wf.xlsx
+++ b/Document/GreatStar外贸财务设计(hbh).wf.xlsx
@@ -7318,10 +7318,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>上下游更新调用方法：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>(Inserted、Updated、Deleted都要调用)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7331,6 +7327,10 @@
   </si>
   <si>
     <t>代码：    GreatStar\FT\Code\UFIDA.U9.Cust.GS.FT.HBHHelper\</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下游更新调用方法即可：</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7777,7 +7777,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8096,7 +8096,10 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -19630,12 +19633,12 @@
   <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.21875" customWidth="1"/>
     <col min="5" max="5" width="21.44140625" customWidth="1"/>
     <col min="6" max="6" width="26.109375" customWidth="1"/>
@@ -20930,33 +20933,45 @@
     <row r="112" spans="1:8" s="96" customFormat="1">
       <c r="D112" s="78"/>
     </row>
-    <row r="113" spans="2:7" s="96" customFormat="1">
-      <c r="C113" s="96" t="s">
+    <row r="113" spans="2:8" s="96" customFormat="1">
+      <c r="C113" s="51" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D113" s="120" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E113" s="51"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="51"/>
+      <c r="H113" s="51"/>
+    </row>
+    <row r="114" spans="2:8" s="96" customFormat="1">
+      <c r="C114" s="121" t="s">
         <v>1525</v>
       </c>
-      <c r="D113" s="78" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" s="96" customFormat="1">
-      <c r="C114" s="120" t="s">
+      <c r="D114" s="120" t="s">
         <v>1526</v>
       </c>
-      <c r="D114" s="78" t="s">
+      <c r="E114" s="51"/>
+      <c r="F114" s="51"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="51"/>
+    </row>
+    <row r="115" spans="2:8" s="96" customFormat="1">
+      <c r="C115" s="121"/>
+      <c r="D115" s="120" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="115" spans="2:7" s="96" customFormat="1">
-      <c r="C115" s="120"/>
-      <c r="D115" s="78" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" s="96" customFormat="1">
+      <c r="E115" s="51"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="51"/>
+      <c r="H115" s="51"/>
+    </row>
+    <row r="116" spans="2:8" s="96" customFormat="1">
       <c r="D116" s="78"/>
     </row>
-    <row r="117" spans="2:7" s="64" customFormat="1"/>
-    <row r="118" spans="2:7" s="64" customFormat="1">
+    <row r="117" spans="2:8" s="64" customFormat="1"/>
+    <row r="118" spans="2:8" s="64" customFormat="1">
       <c r="B118" s="64">
         <v>2.1</v>
       </c>
@@ -20964,18 +20979,18 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="119" spans="2:7" s="64" customFormat="1">
+    <row r="119" spans="2:8" s="64" customFormat="1">
       <c r="C119" s="64" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="120" spans="2:7" s="64" customFormat="1"/>
-    <row r="121" spans="2:7" s="73" customFormat="1">
+    <row r="120" spans="2:8" s="64" customFormat="1"/>
+    <row r="121" spans="2:8" s="73" customFormat="1">
       <c r="C121" s="73" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="122" spans="2:7" s="73" customFormat="1">
+    <row r="122" spans="2:8" s="73" customFormat="1">
       <c r="D122" s="75" t="s">
         <v>1374</v>
       </c>
@@ -20983,11 +20998,11 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="123" spans="2:7" s="96" customFormat="1">
+    <row r="123" spans="2:8" s="96" customFormat="1">
       <c r="D123" s="75"/>
       <c r="E123" s="43"/>
     </row>
-    <row r="124" spans="2:7" s="64" customFormat="1">
+    <row r="124" spans="2:8" s="64" customFormat="1">
       <c r="C124" s="31" t="s">
         <v>1477</v>
       </c>
@@ -21004,7 +21019,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="125" spans="2:7" s="64" customFormat="1">
+    <row r="125" spans="2:8" s="64" customFormat="1">
       <c r="C125" s="74" t="s">
         <v>1496</v>
       </c>
@@ -21017,7 +21032,7 @@
       </c>
       <c r="G125" s="74"/>
     </row>
-    <row r="126" spans="2:7" s="64" customFormat="1">
+    <row r="126" spans="2:8" s="64" customFormat="1">
       <c r="C126" s="74" t="s">
         <v>1497</v>
       </c>
@@ -21030,7 +21045,7 @@
       </c>
       <c r="G126" s="74"/>
     </row>
-    <row r="127" spans="2:7" s="64" customFormat="1">
+    <row r="127" spans="2:8" s="64" customFormat="1">
       <c r="C127" s="74" t="s">
         <v>1494</v>
       </c>
@@ -21043,7 +21058,7 @@
       </c>
       <c r="G127" s="74"/>
     </row>
-    <row r="128" spans="2:7" s="64" customFormat="1">
+    <row r="128" spans="2:8" s="64" customFormat="1">
       <c r="C128" s="74" t="s">
         <v>1495</v>
       </c>

--- a/Document/GreatStar外贸财务设计(hbh).wf.xlsx
+++ b/Document/GreatStar外贸财务设计(hbh).wf.xlsx
@@ -19632,8 +19632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
